--- a/data/pca/factorExposure/factorExposure_2011-04-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006947658691608044</v>
+        <v>-0.01269243872891676</v>
       </c>
       <c r="C2">
-        <v>-0.002015201831625223</v>
+        <v>0.002137816571440042</v>
       </c>
       <c r="D2">
-        <v>-0.04771787136740303</v>
+        <v>0.0007821926568013549</v>
       </c>
       <c r="E2">
-        <v>0.00104057073089066</v>
+        <v>0.01751892988543161</v>
       </c>
       <c r="F2">
-        <v>-0.006701097824535188</v>
+        <v>-0.02929727952631583</v>
       </c>
       <c r="G2">
-        <v>-0.01179328941497185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.004629681422216466</v>
+      </c>
+      <c r="H2">
+        <v>0.01119548775804352</v>
+      </c>
+      <c r="I2">
+        <v>0.04050953147964305</v>
+      </c>
+      <c r="J2">
+        <v>0.06491310699231956</v>
+      </c>
+      <c r="K2">
+        <v>0.01137414429544946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.104312305340064</v>
+        <v>-0.114187623664611</v>
       </c>
       <c r="C4">
-        <v>-0.02809691254554201</v>
+        <v>0.06103392333189819</v>
       </c>
       <c r="D4">
-        <v>-0.04575573452583261</v>
+        <v>-0.002851570250844941</v>
       </c>
       <c r="E4">
-        <v>0.06092871272835997</v>
+        <v>0.01128261755192675</v>
       </c>
       <c r="F4">
-        <v>-0.03585270565344237</v>
+        <v>-0.02828454105687837</v>
       </c>
       <c r="G4">
-        <v>-0.02839693024969807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0553363908452838</v>
+      </c>
+      <c r="H4">
+        <v>0.1461975436962747</v>
+      </c>
+      <c r="I4">
+        <v>0.01110870439338227</v>
+      </c>
+      <c r="J4">
+        <v>-0.03808553845885328</v>
+      </c>
+      <c r="K4">
+        <v>-0.01150198118040967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1290875161543264</v>
+        <v>-0.1258684026019393</v>
       </c>
       <c r="C6">
-        <v>-0.02545487344095882</v>
+        <v>0.0282927190862704</v>
       </c>
       <c r="D6">
-        <v>-0.03393003545740805</v>
+        <v>-0.0159195349775952</v>
       </c>
       <c r="E6">
-        <v>-0.0143083895591589</v>
+        <v>-0.01927615549651972</v>
       </c>
       <c r="F6">
-        <v>0.1410346503548578</v>
+        <v>-0.002653522135705111</v>
       </c>
       <c r="G6">
-        <v>0.1036091701120815</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.08260831300035906</v>
+      </c>
+      <c r="H6">
+        <v>0.02501593658587094</v>
+      </c>
+      <c r="I6">
+        <v>-0.1875818429111996</v>
+      </c>
+      <c r="J6">
+        <v>-0.3541989612730659</v>
+      </c>
+      <c r="K6">
+        <v>0.193112595436239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.09143569692178914</v>
+        <v>-0.07504845706214744</v>
       </c>
       <c r="C7">
-        <v>-0.04197628376290397</v>
+        <v>0.06573387297109812</v>
       </c>
       <c r="D7">
-        <v>-0.04124669041754824</v>
+        <v>-0.02983903749123307</v>
       </c>
       <c r="E7">
-        <v>0.02368509390782911</v>
+        <v>0.02245751876974405</v>
       </c>
       <c r="F7">
-        <v>0.02379242110539892</v>
+        <v>-0.0493502887202977</v>
       </c>
       <c r="G7">
-        <v>-0.03528561520934801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01950793593433837</v>
+      </c>
+      <c r="H7">
+        <v>0.0439725243703231</v>
+      </c>
+      <c r="I7">
+        <v>-0.002670754436351511</v>
+      </c>
+      <c r="J7">
+        <v>0.002755458648190362</v>
+      </c>
+      <c r="K7">
+        <v>-0.1034124964147874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04347821621133679</v>
+        <v>-0.05185915536052449</v>
       </c>
       <c r="C8">
-        <v>0.02102027559601824</v>
+        <v>0.01235077712894216</v>
       </c>
       <c r="D8">
-        <v>-0.08277833673379704</v>
+        <v>-0.0162176624634842</v>
       </c>
       <c r="E8">
-        <v>0.08944880911312393</v>
+        <v>0.01134558122396949</v>
       </c>
       <c r="F8">
-        <v>-0.0189216319304363</v>
+        <v>-0.01648002801394127</v>
       </c>
       <c r="G8">
-        <v>-0.1367819498622942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.07978801748052722</v>
+      </c>
+      <c r="H8">
+        <v>0.1264245421182332</v>
+      </c>
+      <c r="I8">
+        <v>0.01095816131717694</v>
+      </c>
+      <c r="J8">
+        <v>-0.03240144709572813</v>
+      </c>
+      <c r="K8">
+        <v>-0.02048391808082325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09470822801249631</v>
+        <v>-0.08471113760346895</v>
       </c>
       <c r="C9">
-        <v>-0.03819449716420504</v>
+        <v>0.05466385797711725</v>
       </c>
       <c r="D9">
-        <v>-0.0363202783591888</v>
+        <v>-0.009318180431676797</v>
       </c>
       <c r="E9">
-        <v>0.04958937160276314</v>
+        <v>0.01922063296661124</v>
       </c>
       <c r="F9">
-        <v>-0.02376970448140459</v>
+        <v>-0.01776011526461706</v>
       </c>
       <c r="G9">
-        <v>-0.06855717911741857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05582403694362097</v>
+      </c>
+      <c r="H9">
+        <v>0.1274739318239545</v>
+      </c>
+      <c r="I9">
+        <v>-0.01110570089879907</v>
+      </c>
+      <c r="J9">
+        <v>-0.0117150685255291</v>
+      </c>
+      <c r="K9">
+        <v>0.001938289744100032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.0373703507721416</v>
+        <v>-0.09728518155649447</v>
       </c>
       <c r="C10">
-        <v>0.1557710483250336</v>
+        <v>-0.1661544651030422</v>
       </c>
       <c r="D10">
-        <v>-0.09118819362524572</v>
+        <v>0.04485015001579434</v>
       </c>
       <c r="E10">
-        <v>0.02671471299226596</v>
+        <v>0.014509457355917</v>
       </c>
       <c r="F10">
-        <v>0.03330130919090142</v>
+        <v>-0.05136551186671477</v>
       </c>
       <c r="G10">
-        <v>-0.01432493971548434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.003548937333739624</v>
+      </c>
+      <c r="H10">
+        <v>-0.01061139613280104</v>
+      </c>
+      <c r="I10">
+        <v>-0.01143628967813269</v>
+      </c>
+      <c r="J10">
+        <v>-0.04442072132379927</v>
+      </c>
+      <c r="K10">
+        <v>-0.0498033502709999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07656491440070148</v>
+        <v>-0.07556294103863515</v>
       </c>
       <c r="C11">
-        <v>-0.06064917502178756</v>
+        <v>0.06203810664590986</v>
       </c>
       <c r="D11">
-        <v>-0.006255807264258473</v>
+        <v>-0.03302944519294906</v>
       </c>
       <c r="E11">
-        <v>-0.003551456560335957</v>
+        <v>0.03229073197963627</v>
       </c>
       <c r="F11">
-        <v>-0.0152396913865866</v>
+        <v>0.005758910593740985</v>
       </c>
       <c r="G11">
-        <v>-0.1470824377031198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.06187134912788784</v>
+      </c>
+      <c r="H11">
+        <v>0.1207008216094366</v>
+      </c>
+      <c r="I11">
+        <v>-0.006166617544740714</v>
+      </c>
+      <c r="J11">
+        <v>0.1086591789260963</v>
+      </c>
+      <c r="K11">
+        <v>-0.004067544483107386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07243022465566251</v>
+        <v>-0.0740281006996717</v>
       </c>
       <c r="C12">
-        <v>-0.03879082387338063</v>
+        <v>0.06158132189180476</v>
       </c>
       <c r="D12">
-        <v>-0.0003781766680493082</v>
+        <v>-0.03339996160312896</v>
       </c>
       <c r="E12">
-        <v>0.03502319737434218</v>
+        <v>0.05610688541356557</v>
       </c>
       <c r="F12">
-        <v>-0.004880949750982933</v>
+        <v>0.008269685324082546</v>
       </c>
       <c r="G12">
-        <v>-0.1388288674660905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.08997699564518348</v>
+      </c>
+      <c r="H12">
+        <v>0.1108428469306732</v>
+      </c>
+      <c r="I12">
+        <v>-0.03271053444781524</v>
+      </c>
+      <c r="J12">
+        <v>0.09899167630490331</v>
+      </c>
+      <c r="K12">
+        <v>-0.0005593372547655809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.06306071154079998</v>
+        <v>-0.04072250458377582</v>
       </c>
       <c r="C13">
-        <v>-0.007743487663718697</v>
+        <v>0.02895230025494479</v>
       </c>
       <c r="D13">
-        <v>-0.008214507972590141</v>
+        <v>-0.01546003578482658</v>
       </c>
       <c r="E13">
-        <v>0.02209786118423317</v>
+        <v>-0.004591326557329491</v>
       </c>
       <c r="F13">
-        <v>-0.04159295665098303</v>
+        <v>-0.02333067021857347</v>
       </c>
       <c r="G13">
-        <v>-0.0625548272624392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.03491787358064582</v>
+      </c>
+      <c r="H13">
+        <v>0.04776112257131912</v>
+      </c>
+      <c r="I13">
+        <v>-0.02512780285516479</v>
+      </c>
+      <c r="J13">
+        <v>-0.04134448271200433</v>
+      </c>
+      <c r="K13">
+        <v>-0.02392581521009093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05397317320373096</v>
+        <v>-0.0446458908999119</v>
       </c>
       <c r="C14">
-        <v>-0.002035135327953033</v>
+        <v>0.02300962738010075</v>
       </c>
       <c r="D14">
-        <v>-0.03486820699777231</v>
+        <v>0.003128329594248622</v>
       </c>
       <c r="E14">
-        <v>0.0243111642609636</v>
+        <v>0.01915906353134238</v>
       </c>
       <c r="F14">
-        <v>-0.006611631273910096</v>
+        <v>0.002244055940021016</v>
       </c>
       <c r="G14">
-        <v>-0.07556532845854713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04465990040492748</v>
+      </c>
+      <c r="H14">
+        <v>0.05702803851938779</v>
+      </c>
+      <c r="I14">
+        <v>0.01929840012382576</v>
+      </c>
+      <c r="J14">
+        <v>-0.04531646606331564</v>
+      </c>
+      <c r="K14">
+        <v>-0.02015918981551832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.0388979015702737</v>
+        <v>-0.02355568073789149</v>
       </c>
       <c r="C15">
-        <v>0.01167068509817033</v>
+        <v>0.007590447345154442</v>
       </c>
       <c r="D15">
-        <v>-0.009816645464800593</v>
+        <v>-0.0001391137066894252</v>
       </c>
       <c r="E15">
-        <v>0.005491702876180747</v>
+        <v>-0.02502037091468874</v>
       </c>
       <c r="F15">
-        <v>-0.02407471537738163</v>
+        <v>-0.02523091440104211</v>
       </c>
       <c r="G15">
-        <v>-0.02304631174734114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.01729637447838569</v>
+      </c>
+      <c r="H15">
+        <v>0.01428110766314292</v>
+      </c>
+      <c r="I15">
+        <v>-0.00513829412281553</v>
+      </c>
+      <c r="J15">
+        <v>-0.05709213071208221</v>
+      </c>
+      <c r="K15">
+        <v>-0.03041502075287158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.07986746364710283</v>
+        <v>-0.08086624001872453</v>
       </c>
       <c r="C16">
-        <v>-0.07125091960166363</v>
+        <v>0.06754155747241565</v>
       </c>
       <c r="D16">
-        <v>-0.01457221123484089</v>
+        <v>-0.04168646147180276</v>
       </c>
       <c r="E16">
-        <v>0.03745079897185916</v>
+        <v>0.03923908111282648</v>
       </c>
       <c r="F16">
-        <v>-0.0385845031408403</v>
+        <v>-0.0004440334991077949</v>
       </c>
       <c r="G16">
-        <v>-0.1094119320581402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.09317571796103641</v>
+      </c>
+      <c r="H16">
+        <v>0.1089757837137728</v>
+      </c>
+      <c r="I16">
+        <v>-0.009700126897102002</v>
+      </c>
+      <c r="J16">
+        <v>0.1161320913211617</v>
+      </c>
+      <c r="K16">
+        <v>-0.01584764290956228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05081647453584857</v>
+        <v>-0.04882930812222856</v>
       </c>
       <c r="C20">
-        <v>-0.01991959247992143</v>
+        <v>0.0352025643729653</v>
       </c>
       <c r="D20">
-        <v>-0.01741914394975205</v>
+        <v>0.01284576307528878</v>
       </c>
       <c r="E20">
-        <v>0.02504975939225556</v>
+        <v>-0.006613018527800164</v>
       </c>
       <c r="F20">
-        <v>-0.01043983526465113</v>
+        <v>-0.01598530027922023</v>
       </c>
       <c r="G20">
-        <v>-0.1091187297793689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04275693108208997</v>
+      </c>
+      <c r="H20">
+        <v>0.06378924606058368</v>
+      </c>
+      <c r="I20">
+        <v>0.01050204704193926</v>
+      </c>
+      <c r="J20">
+        <v>-0.03542955111797966</v>
+      </c>
+      <c r="K20">
+        <v>-0.05984379862527577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.0266871071533934</v>
+        <v>-0.02685356777716742</v>
       </c>
       <c r="C21">
-        <v>-0.03305892678758823</v>
+        <v>0.01818751912798469</v>
       </c>
       <c r="D21">
-        <v>0.003090596031354919</v>
+        <v>0.02654130855274525</v>
       </c>
       <c r="E21">
-        <v>0.01034266391309593</v>
+        <v>-0.01524603401713541</v>
       </c>
       <c r="F21">
-        <v>0.09037423755097503</v>
+        <v>0.01363393522801393</v>
       </c>
       <c r="G21">
-        <v>0.05597241762489055</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03648053583441213</v>
+      </c>
+      <c r="H21">
+        <v>0.08502164444163439</v>
+      </c>
+      <c r="I21">
+        <v>-0.0612346990781268</v>
+      </c>
+      <c r="J21">
+        <v>-0.05562986001318398</v>
+      </c>
+      <c r="K21">
+        <v>-0.1092917253474418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.04396256257753785</v>
+        <v>-0.03455468841285072</v>
       </c>
       <c r="C22">
-        <v>-0.002946626660443573</v>
+        <v>0.007828115193379321</v>
       </c>
       <c r="D22">
-        <v>-0.0005405482357728539</v>
+        <v>-0.07698445922542417</v>
       </c>
       <c r="E22">
-        <v>0.5584053344190281</v>
+        <v>-0.4449282742679522</v>
       </c>
       <c r="F22">
-        <v>-0.08806186321951728</v>
+        <v>-0.4655298838912324</v>
       </c>
       <c r="G22">
-        <v>0.3311583334003688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.1417595980159386</v>
+      </c>
+      <c r="H22">
+        <v>-0.1315031929416198</v>
+      </c>
+      <c r="I22">
+        <v>-0.01931539653167354</v>
+      </c>
+      <c r="J22">
+        <v>0.08018576904676772</v>
+      </c>
+      <c r="K22">
+        <v>0.03952109754605843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04400940634051292</v>
+        <v>-0.03475830669670441</v>
       </c>
       <c r="C23">
-        <v>-0.003536209791864068</v>
+        <v>0.00838719973383935</v>
       </c>
       <c r="D23">
-        <v>-0.001756889545408622</v>
+        <v>-0.07837381207362895</v>
       </c>
       <c r="E23">
-        <v>0.5577471085007327</v>
+        <v>-0.4462820088846504</v>
       </c>
       <c r="F23">
-        <v>-0.08888606997777786</v>
+        <v>-0.4673015429974398</v>
       </c>
       <c r="G23">
-        <v>0.3328909722341997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.1425580058090295</v>
+      </c>
+      <c r="H23">
+        <v>-0.127707487672047</v>
+      </c>
+      <c r="I23">
+        <v>-0.01811211066675694</v>
+      </c>
+      <c r="J23">
+        <v>0.07767610585681507</v>
+      </c>
+      <c r="K23">
+        <v>0.04228355893102816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08570906509357262</v>
+        <v>-0.08310426636125413</v>
       </c>
       <c r="C24">
-        <v>-0.04648476239662983</v>
+        <v>0.06053972990974671</v>
       </c>
       <c r="D24">
-        <v>-0.02175684482150619</v>
+        <v>-0.01946788675123446</v>
       </c>
       <c r="E24">
-        <v>0.03800252994861986</v>
+        <v>0.03032974353378919</v>
       </c>
       <c r="F24">
-        <v>-0.00678419469370262</v>
+        <v>0.001122979264785118</v>
       </c>
       <c r="G24">
-        <v>-0.1146428220383129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.08804625950198239</v>
+      </c>
+      <c r="H24">
+        <v>0.1101766583885553</v>
+      </c>
+      <c r="I24">
+        <v>-0.01424152388763849</v>
+      </c>
+      <c r="J24">
+        <v>0.1167134613363472</v>
+      </c>
+      <c r="K24">
+        <v>0.006264191453931596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07577554642678218</v>
+        <v>-0.08570761943127848</v>
       </c>
       <c r="C25">
-        <v>-0.01899225467402995</v>
+        <v>0.049232945321194</v>
       </c>
       <c r="D25">
-        <v>-0.023911142314342</v>
+        <v>-0.02507994309818176</v>
       </c>
       <c r="E25">
-        <v>0.02817189170351748</v>
+        <v>0.06256095196046187</v>
       </c>
       <c r="F25">
-        <v>-0.001055032246247037</v>
+        <v>0.008412738639459174</v>
       </c>
       <c r="G25">
-        <v>-0.1114022032539883</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.0919487076442953</v>
+      </c>
+      <c r="H25">
+        <v>0.1002727545119829</v>
+      </c>
+      <c r="I25">
+        <v>-0.008990294717701991</v>
+      </c>
+      <c r="J25">
+        <v>0.09969770133911314</v>
+      </c>
+      <c r="K25">
+        <v>0.007437196054606979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05127765600535199</v>
+        <v>-0.0447118344182296</v>
       </c>
       <c r="C26">
-        <v>-0.02123528700433929</v>
+        <v>0.009916884816195402</v>
       </c>
       <c r="D26">
-        <v>-0.03287700995038142</v>
+        <v>0.01083671634804836</v>
       </c>
       <c r="E26">
-        <v>0.01343174901123726</v>
+        <v>-0.01453710591634438</v>
       </c>
       <c r="F26">
-        <v>-0.0316694077019431</v>
+        <v>-0.002503979142408488</v>
       </c>
       <c r="G26">
-        <v>-0.05952569891394243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.04916454281352526</v>
+      </c>
+      <c r="H26">
+        <v>0.04281526491485962</v>
+      </c>
+      <c r="I26">
+        <v>0.01440082931617185</v>
+      </c>
+      <c r="J26">
+        <v>-0.03418141884467331</v>
+      </c>
+      <c r="K26">
+        <v>-0.01109917761854824</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06038821387659826</v>
+        <v>-0.1193588035831318</v>
       </c>
       <c r="C28">
-        <v>0.2963770885695861</v>
+        <v>-0.3056241619488457</v>
       </c>
       <c r="D28">
-        <v>-0.05879248044485372</v>
+        <v>-0.002329835138281828</v>
       </c>
       <c r="E28">
-        <v>-0.03461496898279119</v>
+        <v>0.01765300120069323</v>
       </c>
       <c r="F28">
-        <v>0.04242098474811189</v>
+        <v>-0.004707295614154268</v>
       </c>
       <c r="G28">
-        <v>0.02514124340526478</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.0156020310659418</v>
+      </c>
+      <c r="H28">
+        <v>0.008103271427376494</v>
+      </c>
+      <c r="I28">
+        <v>-0.01386466101246493</v>
+      </c>
+      <c r="J28">
+        <v>0.002520704880945909</v>
+      </c>
+      <c r="K28">
+        <v>-0.01901734701453799</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05772738719649865</v>
+        <v>-0.04120874070840154</v>
       </c>
       <c r="C29">
-        <v>-0.007939873038399626</v>
+        <v>0.02125496241175785</v>
       </c>
       <c r="D29">
-        <v>-0.03062315810352424</v>
+        <v>-0.00650600211891591</v>
       </c>
       <c r="E29">
-        <v>0.04474202241409848</v>
+        <v>0.03282625904411387</v>
       </c>
       <c r="F29">
-        <v>-0.0391472706578974</v>
+        <v>-0.01838141878359769</v>
       </c>
       <c r="G29">
-        <v>-0.05093074845357331</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.09116452809881845</v>
+      </c>
+      <c r="H29">
+        <v>0.05548525175001718</v>
+      </c>
+      <c r="I29">
+        <v>0.01001311205778509</v>
+      </c>
+      <c r="J29">
+        <v>-0.05149728499263227</v>
+      </c>
+      <c r="K29">
+        <v>-0.04142366089029634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1140088256358683</v>
+        <v>-0.1061086152787122</v>
       </c>
       <c r="C30">
-        <v>0.01950517914484494</v>
+        <v>0.04579223490059005</v>
       </c>
       <c r="D30">
-        <v>-0.07161910553158639</v>
+        <v>-0.06098634849241798</v>
       </c>
       <c r="E30">
-        <v>0.2013614968348997</v>
+        <v>0.01119698442238391</v>
       </c>
       <c r="F30">
-        <v>0.05914879469272175</v>
+        <v>0.006534396621767089</v>
       </c>
       <c r="G30">
-        <v>-0.1474778552189071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.1577217705476382</v>
+      </c>
+      <c r="H30">
+        <v>0.1198625164759085</v>
+      </c>
+      <c r="I30">
+        <v>-0.202171936408077</v>
+      </c>
+      <c r="J30">
+        <v>0.07573534985305269</v>
+      </c>
+      <c r="K30">
+        <v>0.03143864039312964</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.0576595308840383</v>
+        <v>-0.03820831808451074</v>
       </c>
       <c r="C31">
-        <v>-0.01808167068216358</v>
+        <v>0.03576564456841821</v>
       </c>
       <c r="D31">
-        <v>0.009775569324549784</v>
+        <v>-0.005333500801205478</v>
       </c>
       <c r="E31">
-        <v>0.00793426541057762</v>
+        <v>-0.001234216597497502</v>
       </c>
       <c r="F31">
-        <v>-0.02561339099605215</v>
+        <v>-0.003521024299868971</v>
       </c>
       <c r="G31">
-        <v>-0.007943155907176109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02067027607991559</v>
+      </c>
+      <c r="H31">
+        <v>0.02471791524094024</v>
+      </c>
+      <c r="I31">
+        <v>0.03790484453050572</v>
+      </c>
+      <c r="J31">
+        <v>-0.01971703330926903</v>
+      </c>
+      <c r="K31">
+        <v>0.00384451128177141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03931276977798317</v>
+        <v>-0.05251143373836224</v>
       </c>
       <c r="C32">
-        <v>0.018292079357246</v>
+        <v>0.0009521822533546644</v>
       </c>
       <c r="D32">
-        <v>-0.005861504657926048</v>
+        <v>0.01066529625303014</v>
       </c>
       <c r="E32">
-        <v>0.0832531464969951</v>
+        <v>0.002170995488964157</v>
       </c>
       <c r="F32">
-        <v>-0.08342894362877921</v>
+        <v>0.05981123036856065</v>
       </c>
       <c r="G32">
-        <v>-0.05006237958169537</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02122243233710759</v>
+      </c>
+      <c r="H32">
+        <v>0.04778434416860242</v>
+      </c>
+      <c r="I32">
+        <v>0.003465529802558407</v>
+      </c>
+      <c r="J32">
+        <v>-0.01823437508251231</v>
+      </c>
+      <c r="K32">
+        <v>-0.001939706462541429</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1117777247106585</v>
+        <v>-0.09605386594524315</v>
       </c>
       <c r="C33">
-        <v>-0.01791376181621126</v>
+        <v>0.05130752426080222</v>
       </c>
       <c r="D33">
-        <v>0.007844502773914602</v>
+        <v>-0.06276663602559311</v>
       </c>
       <c r="E33">
-        <v>0.009191978495850312</v>
+        <v>0.03903721159705313</v>
       </c>
       <c r="F33">
-        <v>-0.05634532882759324</v>
+        <v>0.001294978367755691</v>
       </c>
       <c r="G33">
-        <v>-0.05770349587398336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03303988876309388</v>
+      </c>
+      <c r="H33">
+        <v>0.05841286977631027</v>
+      </c>
+      <c r="I33">
+        <v>0.00889725404205261</v>
+      </c>
+      <c r="J33">
+        <v>0.01844212355171912</v>
+      </c>
+      <c r="K33">
+        <v>0.02317828881977407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06590236630666056</v>
+        <v>-0.06742242911539043</v>
       </c>
       <c r="C34">
-        <v>-0.05196207152457666</v>
+        <v>0.0506097999479259</v>
       </c>
       <c r="D34">
-        <v>-0.006600208776317353</v>
+        <v>-0.02365806703673308</v>
       </c>
       <c r="E34">
-        <v>0.01388577915021065</v>
+        <v>0.0358021694261984</v>
       </c>
       <c r="F34">
-        <v>-0.02029918983867228</v>
+        <v>0.001366270372589649</v>
       </c>
       <c r="G34">
-        <v>-0.09245268829392966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.08403164872966269</v>
+      </c>
+      <c r="H34">
+        <v>0.1012747907483182</v>
+      </c>
+      <c r="I34">
+        <v>-0.01013680430245496</v>
+      </c>
+      <c r="J34">
+        <v>0.08450196511022209</v>
+      </c>
+      <c r="K34">
+        <v>-0.03329404291833377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04487198465222043</v>
+        <v>-0.02085626793795172</v>
       </c>
       <c r="C35">
-        <v>-0.005814582707086353</v>
+        <v>0.01648490125298658</v>
       </c>
       <c r="D35">
-        <v>0.0166307205873869</v>
+        <v>-0.01207092588449741</v>
       </c>
       <c r="E35">
-        <v>0.002210945774311277</v>
+        <v>0.009105537409295927</v>
       </c>
       <c r="F35">
-        <v>0.03585019403952638</v>
+        <v>-0.003350530089955081</v>
       </c>
       <c r="G35">
-        <v>-0.04845079228997289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.050770108035296</v>
+      </c>
+      <c r="H35">
+        <v>0.02889725366624056</v>
+      </c>
+      <c r="I35">
+        <v>-0.007613544286701726</v>
+      </c>
+      <c r="J35">
+        <v>-0.005632874080661206</v>
+      </c>
+      <c r="K35">
+        <v>-0.06873288519307168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03633199423369014</v>
+        <v>-0.02915716420295811</v>
       </c>
       <c r="C36">
-        <v>-0.002272786965646952</v>
+        <v>0.01067286967362326</v>
       </c>
       <c r="D36">
-        <v>-0.02364341959147269</v>
+        <v>-0.005146168704948746</v>
       </c>
       <c r="E36">
-        <v>0.03495440525167658</v>
+        <v>-0.00415514802532867</v>
       </c>
       <c r="F36">
-        <v>-0.007496026281625421</v>
+        <v>-0.007855641273431644</v>
       </c>
       <c r="G36">
-        <v>-0.06312065275282816</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.04543508878376003</v>
+      </c>
+      <c r="H36">
+        <v>0.06408316529447734</v>
+      </c>
+      <c r="I36">
+        <v>-0.005118289465859001</v>
+      </c>
+      <c r="J36">
+        <v>-0.03058773668475408</v>
+      </c>
+      <c r="K36">
+        <v>0.008506205162555942</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05477583142326378</v>
+        <v>-0.0222270876119911</v>
       </c>
       <c r="C38">
-        <v>-0.01552043225568336</v>
+        <v>0.02593915266157641</v>
       </c>
       <c r="D38">
-        <v>-0.002943107184720419</v>
+        <v>-0.01207359497876963</v>
       </c>
       <c r="E38">
-        <v>0.008788925241619233</v>
+        <v>-0.001887085895381049</v>
       </c>
       <c r="F38">
-        <v>-0.00168185905177318</v>
+        <v>-0.02330174179865952</v>
       </c>
       <c r="G38">
-        <v>-0.04486794928146709</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.006910366369851124</v>
+      </c>
+      <c r="H38">
+        <v>-0.05168751477350018</v>
+      </c>
+      <c r="I38">
+        <v>-0.005568284888240528</v>
+      </c>
+      <c r="J38">
+        <v>-0.01541067139192036</v>
+      </c>
+      <c r="K38">
+        <v>0.007275299303001092</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1089401244824119</v>
+        <v>-0.1149712511626971</v>
       </c>
       <c r="C39">
-        <v>-0.04008384385620475</v>
+        <v>0.08125513952402669</v>
       </c>
       <c r="D39">
-        <v>-0.004618214153981367</v>
+        <v>-0.05531499075387378</v>
       </c>
       <c r="E39">
-        <v>0.07053811576170228</v>
+        <v>0.1038510054383227</v>
       </c>
       <c r="F39">
-        <v>-0.01397749388969692</v>
+        <v>0.04264421576108671</v>
       </c>
       <c r="G39">
-        <v>-0.149879171496541</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.1305697186545394</v>
+      </c>
+      <c r="H39">
+        <v>0.09169978139846785</v>
+      </c>
+      <c r="I39">
+        <v>-0.03594982493930567</v>
+      </c>
+      <c r="J39">
+        <v>0.1779986689326422</v>
+      </c>
+      <c r="K39">
+        <v>-0.0139539527215641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05357579691387149</v>
+        <v>-0.0205181204839381</v>
       </c>
       <c r="C40">
-        <v>-0.03313984998858597</v>
+        <v>0.0496032210161385</v>
       </c>
       <c r="D40">
-        <v>0.02423380293334118</v>
+        <v>-0.005208462852055291</v>
       </c>
       <c r="E40">
-        <v>0.1052052960801349</v>
+        <v>-0.04640711476668578</v>
       </c>
       <c r="F40">
-        <v>0.01239492529426582</v>
+        <v>-0.04989597030535965</v>
       </c>
       <c r="G40">
-        <v>-0.2510047658967842</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.06316426150923513</v>
+      </c>
+      <c r="H40">
+        <v>0.1088147802448427</v>
+      </c>
+      <c r="I40">
+        <v>-0.0759902873832813</v>
+      </c>
+      <c r="J40">
+        <v>-0.03924081744740283</v>
+      </c>
+      <c r="K40">
+        <v>-0.04694492656864462</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04850824915076829</v>
+        <v>-0.03362247659104753</v>
       </c>
       <c r="C41">
-        <v>-0.02873931713850815</v>
+        <v>0.02486225500797829</v>
       </c>
       <c r="D41">
-        <v>-0.0006639497804113261</v>
+        <v>0.003429922030632799</v>
       </c>
       <c r="E41">
-        <v>-0.01253468288008775</v>
+        <v>0.01334195879199922</v>
       </c>
       <c r="F41">
-        <v>-0.02265631537501773</v>
+        <v>0.0001202813741102519</v>
       </c>
       <c r="G41">
-        <v>-0.0703193239221007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.02019228636083641</v>
+      </c>
+      <c r="H41">
+        <v>0.01827657613454016</v>
+      </c>
+      <c r="I41">
+        <v>0.01975871413044425</v>
+      </c>
+      <c r="J41">
+        <v>-0.01208884442812538</v>
+      </c>
+      <c r="K41">
+        <v>-0.02443819197422882</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07316615986763118</v>
+        <v>-0.04835396433226745</v>
       </c>
       <c r="C43">
-        <v>-0.02650456365714573</v>
+        <v>0.02446683675576126</v>
       </c>
       <c r="D43">
-        <v>-0.02051886057671795</v>
+        <v>-0.02149559807253943</v>
       </c>
       <c r="E43">
-        <v>0.02227753097671785</v>
+        <v>0.008335039284309408</v>
       </c>
       <c r="F43">
-        <v>-0.01961832571868641</v>
+        <v>-0.01742485394902714</v>
       </c>
       <c r="G43">
-        <v>-0.01035233674009679</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.03370184166720248</v>
+      </c>
+      <c r="H43">
+        <v>0.0005272604001349149</v>
+      </c>
+      <c r="I43">
+        <v>0.01376310198509081</v>
+      </c>
+      <c r="J43">
+        <v>-0.006460449500295205</v>
+      </c>
+      <c r="K43">
+        <v>-0.00155663496383066</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.07282399985135753</v>
+        <v>-0.1051518338348833</v>
       </c>
       <c r="C44">
-        <v>-0.01866852393380957</v>
+        <v>0.08424580441451855</v>
       </c>
       <c r="D44">
-        <v>-0.09703741751756603</v>
+        <v>-0.06372910557631717</v>
       </c>
       <c r="E44">
-        <v>0.06158432412429247</v>
+        <v>0.008495378459978192</v>
       </c>
       <c r="F44">
-        <v>-0.03939536396713696</v>
+        <v>-0.1356525457714633</v>
       </c>
       <c r="G44">
-        <v>-0.1141159869804687</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.1903351655602913</v>
+      </c>
+      <c r="H44">
+        <v>0.1406305622373153</v>
+      </c>
+      <c r="I44">
+        <v>-0.06905832552382371</v>
+      </c>
+      <c r="J44">
+        <v>-0.07785902814523073</v>
+      </c>
+      <c r="K44">
+        <v>-0.078742811685268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04765844854728999</v>
+        <v>-0.0286080684340463</v>
       </c>
       <c r="C46">
-        <v>-0.03715822229614008</v>
+        <v>0.01696470322368034</v>
       </c>
       <c r="D46">
-        <v>-0.03272645657773341</v>
+        <v>-0.01460999420609107</v>
       </c>
       <c r="E46">
-        <v>0.05169644888878021</v>
+        <v>-0.004396770081570901</v>
       </c>
       <c r="F46">
-        <v>-0.01974461395926727</v>
+        <v>-0.04800456430981313</v>
       </c>
       <c r="G46">
-        <v>-0.03993401941108523</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05334439153286953</v>
+      </c>
+      <c r="H46">
+        <v>0.0289943427526814</v>
+      </c>
+      <c r="I46">
+        <v>0.001834525122135095</v>
+      </c>
+      <c r="J46">
+        <v>-0.04058128832078334</v>
+      </c>
+      <c r="K46">
+        <v>-0.07739123934115989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04795888272586724</v>
+        <v>-0.04081135411369862</v>
       </c>
       <c r="C47">
-        <v>-0.0008546084604382142</v>
+        <v>0.01594863876346807</v>
       </c>
       <c r="D47">
-        <v>-0.0094013748468144</v>
+        <v>-0.01014352594516457</v>
       </c>
       <c r="E47">
-        <v>0.06118271245628745</v>
+        <v>-0.005493248395198509</v>
       </c>
       <c r="F47">
-        <v>0.007059899886625564</v>
+        <v>-0.009784602161073333</v>
       </c>
       <c r="G47">
-        <v>0.004426888994508681</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.03430546073621587</v>
+      </c>
+      <c r="H47">
+        <v>0.02587696086444082</v>
+      </c>
+      <c r="I47">
+        <v>0.002884522501111553</v>
+      </c>
+      <c r="J47">
+        <v>-0.04979600098260958</v>
+      </c>
+      <c r="K47">
+        <v>-0.02433851593017917</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04403121185031002</v>
+        <v>-0.0427252792445676</v>
       </c>
       <c r="C48">
-        <v>0.001634361507581286</v>
+        <v>0.009856072352168071</v>
       </c>
       <c r="D48">
-        <v>0.001780782760500881</v>
+        <v>-0.004110127847468855</v>
       </c>
       <c r="E48">
-        <v>0.03656181075181868</v>
+        <v>0.006392497907358065</v>
       </c>
       <c r="F48">
-        <v>-0.008899624459112999</v>
+        <v>-0.008140218504863355</v>
       </c>
       <c r="G48">
-        <v>-0.0459443510968514</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0493997414265841</v>
+      </c>
+      <c r="H48">
+        <v>0.05472072423013593</v>
+      </c>
+      <c r="I48">
+        <v>-0.02144468528015899</v>
+      </c>
+      <c r="J48">
+        <v>-0.004609587661034672</v>
+      </c>
+      <c r="K48">
+        <v>-0.03039449761458077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2371751427655322</v>
+        <v>-0.2279380357733165</v>
       </c>
       <c r="C49">
-        <v>-0.08642051538396513</v>
+        <v>0.05437439351259243</v>
       </c>
       <c r="D49">
-        <v>-0.02646374534673939</v>
+        <v>0.07792850999418838</v>
       </c>
       <c r="E49">
-        <v>-0.09032627171328246</v>
+        <v>0.04332739884846116</v>
       </c>
       <c r="F49">
-        <v>0.1739026461473896</v>
+        <v>0.002101454786195089</v>
       </c>
       <c r="G49">
-        <v>0.0856402831910833</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.1619193930147778</v>
+      </c>
+      <c r="H49">
+        <v>-0.1920950577035697</v>
+      </c>
+      <c r="I49">
+        <v>-0.1955709444372163</v>
+      </c>
+      <c r="J49">
+        <v>0.2338168547844316</v>
+      </c>
+      <c r="K49">
+        <v>0.1276440178378625</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05554361852315334</v>
+        <v>-0.04320114706437738</v>
       </c>
       <c r="C50">
-        <v>-0.0145786034584223</v>
+        <v>0.02706503618462358</v>
       </c>
       <c r="D50">
-        <v>0.00568312996782456</v>
+        <v>0.001870399379025521</v>
       </c>
       <c r="E50">
-        <v>0.02713855860373785</v>
+        <v>-0.003878141438135767</v>
       </c>
       <c r="F50">
-        <v>-0.05166686170329412</v>
+        <v>0.0006193032082771286</v>
       </c>
       <c r="G50">
-        <v>0.001118037411440317</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.04298297885311303</v>
+      </c>
+      <c r="H50">
+        <v>0.03712512614948005</v>
+      </c>
+      <c r="I50">
+        <v>0.02046464124459173</v>
+      </c>
+      <c r="J50">
+        <v>-0.02074957989338999</v>
+      </c>
+      <c r="K50">
+        <v>0.02525826792783223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03588677358593645</v>
+        <v>-0.02056554641654977</v>
       </c>
       <c r="C51">
-        <v>-0.01412710732519871</v>
+        <v>-0.001451816337019069</v>
       </c>
       <c r="D51">
-        <v>-0.01418129983208154</v>
+        <v>-0.0114528916274487</v>
       </c>
       <c r="E51">
-        <v>-0.00475227186799699</v>
+        <v>0.01257040145076497</v>
       </c>
       <c r="F51">
-        <v>-0.002174723972831557</v>
+        <v>-0.02141002446875172</v>
       </c>
       <c r="G51">
-        <v>0.003433014925720423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02837998383266762</v>
+      </c>
+      <c r="H51">
+        <v>-0.01402147936092253</v>
+      </c>
+      <c r="I51">
+        <v>-0.01515991405485432</v>
+      </c>
+      <c r="J51">
+        <v>0.02946301070274378</v>
+      </c>
+      <c r="K51">
+        <v>0.01287291296670382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.069824737970149</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.03486687526617933</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01545049107778905</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01391274101231268</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01674661593145312</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>-0.06044016015488892</v>
+      </c>
+      <c r="H52">
+        <v>-0.02161415053972366</v>
+      </c>
+      <c r="I52">
+        <v>0.1244287639211028</v>
+      </c>
+      <c r="J52">
+        <v>-0.001268959003043694</v>
+      </c>
+      <c r="K52">
+        <v>0.009176830610699769</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1588902789711421</v>
+        <v>-0.160291299717371</v>
       </c>
       <c r="C53">
-        <v>-0.0004450858925168637</v>
+        <v>0.03269906631822922</v>
       </c>
       <c r="D53">
-        <v>-0.01327181450422632</v>
+        <v>0.009068917251609212</v>
       </c>
       <c r="E53">
-        <v>-0.05365285497701792</v>
+        <v>0.01463621065904542</v>
       </c>
       <c r="F53">
-        <v>-0.2265388316435589</v>
+        <v>-0.01234780460304078</v>
       </c>
       <c r="G53">
-        <v>0.05679337382222692</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02840090506438537</v>
+      </c>
+      <c r="H53">
+        <v>-0.1019277009447675</v>
+      </c>
+      <c r="I53">
+        <v>0.2727840839437629</v>
+      </c>
+      <c r="J53">
+        <v>-0.05987119489033352</v>
+      </c>
+      <c r="K53">
+        <v>0.09091131703142566</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05310980416223645</v>
+        <v>-0.05240559099001375</v>
       </c>
       <c r="C54">
-        <v>-0.004169598418089099</v>
+        <v>0.03771285859614946</v>
       </c>
       <c r="D54">
-        <v>-0.027864866360534</v>
+        <v>0.000838131509291604</v>
       </c>
       <c r="E54">
-        <v>0.03996287840963435</v>
+        <v>-0.009604579806882441</v>
       </c>
       <c r="F54">
-        <v>-0.0153137840629517</v>
+        <v>-0.02280503321250595</v>
       </c>
       <c r="G54">
-        <v>-0.07955600210943538</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05216681196157511</v>
+      </c>
+      <c r="H54">
+        <v>0.1436255730550433</v>
+      </c>
+      <c r="I54">
+        <v>0.008358449051294237</v>
+      </c>
+      <c r="J54">
+        <v>-0.112446760810352</v>
+      </c>
+      <c r="K54">
+        <v>-0.07317097493169726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09329983241843483</v>
+        <v>-0.08737330275881644</v>
       </c>
       <c r="C55">
-        <v>-0.01466181714462242</v>
+        <v>0.03100841120936829</v>
       </c>
       <c r="D55">
-        <v>-0.01921196422209175</v>
+        <v>-0.04416078517896922</v>
       </c>
       <c r="E55">
-        <v>0.0004319332718632325</v>
+        <v>0.04657200564666004</v>
       </c>
       <c r="F55">
-        <v>-0.1711469484799426</v>
+        <v>-0.0129651010487341</v>
       </c>
       <c r="G55">
-        <v>0.008285872566830043</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01772839590461442</v>
+      </c>
+      <c r="H55">
+        <v>-0.01923239161763525</v>
+      </c>
+      <c r="I55">
+        <v>0.165335550280903</v>
+      </c>
+      <c r="J55">
+        <v>-0.02230110821026055</v>
+      </c>
+      <c r="K55">
+        <v>0.03223518844369037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1599137995238553</v>
+        <v>-0.1577768268371703</v>
       </c>
       <c r="C56">
-        <v>0.003108939383000138</v>
+        <v>0.04446518720691368</v>
       </c>
       <c r="D56">
-        <v>-0.008296734523384518</v>
+        <v>-0.01150529112772993</v>
       </c>
       <c r="E56">
-        <v>-0.0529194051301989</v>
+        <v>0.04739371624072605</v>
       </c>
       <c r="F56">
-        <v>-0.2269369012988268</v>
+        <v>-0.02028263006671387</v>
       </c>
       <c r="G56">
-        <v>0.06348339115903402</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.05618716405840258</v>
+      </c>
+      <c r="H56">
+        <v>-0.06827102616290281</v>
+      </c>
+      <c r="I56">
+        <v>0.2303766284371687</v>
+      </c>
+      <c r="J56">
+        <v>-0.03277196422480681</v>
+      </c>
+      <c r="K56">
+        <v>0.08306581834807622</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03096095877606297</v>
+        <v>-0.04345671059704666</v>
       </c>
       <c r="C58">
-        <v>-0.05702141954392849</v>
+        <v>0.04067845852896913</v>
       </c>
       <c r="D58">
-        <v>0.0307543812349345</v>
+        <v>-0.01954549260995797</v>
       </c>
       <c r="E58">
-        <v>0.2742319727924299</v>
+        <v>-0.06302381757142275</v>
       </c>
       <c r="F58">
-        <v>0.5005096332517197</v>
+        <v>-0.04823673824468256</v>
       </c>
       <c r="G58">
-        <v>-0.1611499563470658</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1093661827899291</v>
+      </c>
+      <c r="H58">
+        <v>-0.005724619251300746</v>
+      </c>
+      <c r="I58">
+        <v>-0.1810386160598576</v>
+      </c>
+      <c r="J58">
+        <v>-0.005723392894542363</v>
+      </c>
+      <c r="K58">
+        <v>-0.2619124230228338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1541694168932572</v>
+        <v>-0.1885012060509021</v>
       </c>
       <c r="C59">
-        <v>0.3879117466080538</v>
+        <v>-0.3014198332867114</v>
       </c>
       <c r="D59">
-        <v>-0.08218202708374815</v>
+        <v>-0.007854932877486486</v>
       </c>
       <c r="E59">
-        <v>-0.07123890782473252</v>
+        <v>0.05468533807059096</v>
       </c>
       <c r="F59">
-        <v>-0.04152766496089462</v>
+        <v>-0.001668697955347328</v>
       </c>
       <c r="G59">
-        <v>-0.0360137930241994</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.03553629061683534</v>
+      </c>
+      <c r="H59">
+        <v>0.0512623299458986</v>
+      </c>
+      <c r="I59">
+        <v>0.05720155444747575</v>
+      </c>
+      <c r="J59">
+        <v>0.02349198429056676</v>
+      </c>
+      <c r="K59">
+        <v>0.01836932504338265</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2665761414221227</v>
+        <v>-0.2615810475505814</v>
       </c>
       <c r="C60">
-        <v>-0.0619575439393486</v>
+        <v>0.1559935661438</v>
       </c>
       <c r="D60">
-        <v>-0.07742822695384714</v>
+        <v>0.09495617421737718</v>
       </c>
       <c r="E60">
-        <v>-0.08405280108638463</v>
+        <v>0.1043365983806728</v>
       </c>
       <c r="F60">
-        <v>0.0800671194790383</v>
+        <v>-0.0334920156304834</v>
       </c>
       <c r="G60">
-        <v>0.1987485120827417</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.01017641267286363</v>
+      </c>
+      <c r="H60">
+        <v>-0.1974747886018296</v>
+      </c>
+      <c r="I60">
+        <v>-0.2177662263153153</v>
+      </c>
+      <c r="J60">
+        <v>0.09160436411623236</v>
+      </c>
+      <c r="K60">
+        <v>0.3432957887946007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09425151638926635</v>
+        <v>-0.1046021442613256</v>
       </c>
       <c r="C61">
-        <v>-0.01691258254369731</v>
+        <v>0.04501294071418406</v>
       </c>
       <c r="D61">
-        <v>-0.00625429608336325</v>
+        <v>-0.03870880367662424</v>
       </c>
       <c r="E61">
-        <v>0.02254814741688675</v>
+        <v>0.07812299649669879</v>
       </c>
       <c r="F61">
-        <v>-0.02343670977418428</v>
+        <v>0.006605256155766354</v>
       </c>
       <c r="G61">
-        <v>-0.06260442482749601</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.1036087301767305</v>
+      </c>
+      <c r="H61">
+        <v>0.1070669933851987</v>
+      </c>
+      <c r="I61">
+        <v>0.04048570277994955</v>
+      </c>
+      <c r="J61">
+        <v>0.09816000844290884</v>
+      </c>
+      <c r="K61">
+        <v>-0.03165876964312856</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1453040851362688</v>
+        <v>-0.1513959792414154</v>
       </c>
       <c r="C62">
-        <v>-0.02563311570371168</v>
+        <v>0.04551973632034959</v>
       </c>
       <c r="D62">
-        <v>0.03231787599627312</v>
+        <v>-0.01249466307062592</v>
       </c>
       <c r="E62">
-        <v>-0.1223065648512909</v>
+        <v>0.04026789651069752</v>
       </c>
       <c r="F62">
-        <v>-0.2360774973601394</v>
+        <v>0.005552207697151632</v>
       </c>
       <c r="G62">
-        <v>0.0237369067836833</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.03164223054512988</v>
+      </c>
+      <c r="H62">
+        <v>-0.08601009618853964</v>
+      </c>
+      <c r="I62">
+        <v>0.2288595335128895</v>
+      </c>
+      <c r="J62">
+        <v>-0.06111020412608383</v>
+      </c>
+      <c r="K62">
+        <v>0.06871075043215161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0433583005668549</v>
+        <v>-0.04068208578419775</v>
       </c>
       <c r="C63">
-        <v>-0.01212052187504571</v>
+        <v>0.008811929612521287</v>
       </c>
       <c r="D63">
-        <v>0.006046520815070916</v>
+        <v>-0.01796764225168519</v>
       </c>
       <c r="E63">
-        <v>0.01369424465171747</v>
+        <v>-0.0123513845037653</v>
       </c>
       <c r="F63">
-        <v>-0.02150501643852769</v>
+        <v>0.01963618559177943</v>
       </c>
       <c r="G63">
-        <v>-0.04770296461195582</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.03645506193306398</v>
+      </c>
+      <c r="H63">
+        <v>0.06501559362440461</v>
+      </c>
+      <c r="I63">
+        <v>-0.01249343362497465</v>
+      </c>
+      <c r="J63">
+        <v>-0.008513358631048776</v>
+      </c>
+      <c r="K63">
+        <v>-0.009253987020394405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.106822325346424</v>
+        <v>-0.09913113653719008</v>
       </c>
       <c r="C64">
-        <v>-0.009969315383958495</v>
+        <v>0.03303178136587195</v>
       </c>
       <c r="D64">
-        <v>-0.03919736809137043</v>
+        <v>0.01406564025172414</v>
       </c>
       <c r="E64">
-        <v>0.03529556556452855</v>
+        <v>0.02663085650151534</v>
       </c>
       <c r="F64">
-        <v>0.01941413403921655</v>
+        <v>-0.04217335841006617</v>
       </c>
       <c r="G64">
-        <v>-0.04698944272286336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.0634241121819468</v>
+      </c>
+      <c r="H64">
+        <v>0.05890785208145004</v>
+      </c>
+      <c r="I64">
+        <v>-0.08159098256253779</v>
+      </c>
+      <c r="J64">
+        <v>0.01879280416290769</v>
+      </c>
+      <c r="K64">
+        <v>0.03704997522099179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1210289213712037</v>
+        <v>-0.1161689559811919</v>
       </c>
       <c r="C65">
-        <v>-0.02718480518374466</v>
+        <v>0.02195092966616085</v>
       </c>
       <c r="D65">
-        <v>-0.02482692729130307</v>
+        <v>-0.001794573689850419</v>
       </c>
       <c r="E65">
-        <v>0.05240344558356495</v>
+        <v>-0.02389347992199432</v>
       </c>
       <c r="F65">
-        <v>0.1849782343455564</v>
+        <v>0.02783374966490366</v>
       </c>
       <c r="G65">
-        <v>0.1512929571865843</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.04882531498217488</v>
+      </c>
+      <c r="H65">
+        <v>-0.003134875519167546</v>
+      </c>
+      <c r="I65">
+        <v>-0.2577318513294976</v>
+      </c>
+      <c r="J65">
+        <v>-0.4901273651924554</v>
+      </c>
+      <c r="K65">
+        <v>0.2853785227370179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1605634201119849</v>
+        <v>-0.1420200797269615</v>
       </c>
       <c r="C66">
-        <v>-0.05222518769775988</v>
+        <v>0.102064152217297</v>
       </c>
       <c r="D66">
-        <v>0.02048373128851795</v>
+        <v>-0.06213570914054768</v>
       </c>
       <c r="E66">
-        <v>0.02237509485629277</v>
+        <v>0.1037942787199105</v>
       </c>
       <c r="F66">
-        <v>-0.04207389329635107</v>
+        <v>0.0500926313666977</v>
       </c>
       <c r="G66">
-        <v>-0.2914505052927855</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.1155946280434269</v>
+      </c>
+      <c r="H66">
+        <v>0.07619126093834359</v>
+      </c>
+      <c r="I66">
+        <v>-0.007243182090026683</v>
+      </c>
+      <c r="J66">
+        <v>0.227871506393191</v>
+      </c>
+      <c r="K66">
+        <v>0.03963462583675952</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1063494078634315</v>
+        <v>-0.07312000250613518</v>
       </c>
       <c r="C67">
-        <v>-0.03794586641299696</v>
+        <v>0.03769388294939788</v>
       </c>
       <c r="D67">
-        <v>-0.02070641183097865</v>
+        <v>-0.05812746786111543</v>
       </c>
       <c r="E67">
-        <v>-0.01494170928818901</v>
+        <v>0.02803267267404973</v>
       </c>
       <c r="F67">
-        <v>-0.01166717169809281</v>
+        <v>-0.03167204086884696</v>
       </c>
       <c r="G67">
-        <v>-0.03848742927088046</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.06464818949079004</v>
+      </c>
+      <c r="H67">
+        <v>-0.03296307552047198</v>
+      </c>
+      <c r="I67">
+        <v>0.0001243181291397887</v>
+      </c>
+      <c r="J67">
+        <v>0.04495206431472978</v>
+      </c>
+      <c r="K67">
+        <v>0.06446379687416581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04063949423910951</v>
+        <v>-0.1002219731235983</v>
       </c>
       <c r="C68">
-        <v>0.2950940218432486</v>
+        <v>-0.2804645008585106</v>
       </c>
       <c r="D68">
-        <v>-0.03720557395399551</v>
+        <v>-0.003180825010905186</v>
       </c>
       <c r="E68">
-        <v>-0.01146032773132177</v>
+        <v>0.01050068046651282</v>
       </c>
       <c r="F68">
-        <v>0.01163240194688738</v>
+        <v>0.01612568278597807</v>
       </c>
       <c r="G68">
-        <v>0.02053038875475883</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02396086783541533</v>
+      </c>
+      <c r="H68">
+        <v>0.02856940627680754</v>
+      </c>
+      <c r="I68">
+        <v>-0.009295318624194209</v>
+      </c>
+      <c r="J68">
+        <v>-0.009932712708632956</v>
+      </c>
+      <c r="K68">
+        <v>0.01875371670921048</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.04573649966611105</v>
+        <v>-0.03596882330703784</v>
       </c>
       <c r="C69">
-        <v>-0.01635180862344847</v>
+        <v>0.001222554614139757</v>
       </c>
       <c r="D69">
-        <v>-0.008837746714449698</v>
+        <v>-0.02539294649581818</v>
       </c>
       <c r="E69">
-        <v>-0.000128204934658217</v>
+        <v>0.01515570790330503</v>
       </c>
       <c r="F69">
-        <v>-0.0132953403346041</v>
+        <v>-0.01908523325707497</v>
       </c>
       <c r="G69">
-        <v>-0.03009507555649055</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01143025723965418</v>
+      </c>
+      <c r="H69">
+        <v>0.004622374839030773</v>
+      </c>
+      <c r="I69">
+        <v>0.01260115324278261</v>
+      </c>
+      <c r="J69">
+        <v>-0.03156354207681977</v>
+      </c>
+      <c r="K69">
+        <v>0.009010656678804322</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07543901388060684</v>
+        <v>-0.04656092662134785</v>
       </c>
       <c r="C70">
-        <v>-0.007592307592641807</v>
+        <v>0.0115528861831221</v>
       </c>
       <c r="D70">
-        <v>-0.03524387685040779</v>
+        <v>-0.01771826626323071</v>
       </c>
       <c r="E70">
-        <v>-0.03269689715953199</v>
+        <v>0.05207090356953543</v>
       </c>
       <c r="F70">
-        <v>0.07789800535718958</v>
+        <v>-0.01507318875621197</v>
       </c>
       <c r="G70">
-        <v>0.00913709818660873</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.02156317673886619</v>
+      </c>
+      <c r="H70">
+        <v>0.02241556449002266</v>
+      </c>
+      <c r="I70">
+        <v>-0.05059920906479924</v>
+      </c>
+      <c r="J70">
+        <v>-0.1523470538938255</v>
+      </c>
+      <c r="K70">
+        <v>-0.1410152440779082</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.05094327412205883</v>
+        <v>-0.1152939283187314</v>
       </c>
       <c r="C71">
-        <v>0.2979476557012437</v>
+        <v>-0.2933705681321115</v>
       </c>
       <c r="D71">
-        <v>-0.05533436265901143</v>
+        <v>0.008063193628674756</v>
       </c>
       <c r="E71">
-        <v>-0.008248758348685466</v>
+        <v>0.01983219424731485</v>
       </c>
       <c r="F71">
-        <v>0.01226220639845215</v>
+        <v>-0.009769983860684428</v>
       </c>
       <c r="G71">
-        <v>-0.01224435558008083</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.04029624180679185</v>
+      </c>
+      <c r="H71">
+        <v>0.02798505254707047</v>
+      </c>
+      <c r="I71">
+        <v>-0.00843332467822806</v>
+      </c>
+      <c r="J71">
+        <v>0.01793132773984926</v>
+      </c>
+      <c r="K71">
+        <v>0.03411901994912863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1468400587639828</v>
+        <v>-0.1480610417896301</v>
       </c>
       <c r="C72">
-        <v>0.04638115858424438</v>
+        <v>0.01130524863885379</v>
       </c>
       <c r="D72">
-        <v>0.2365605409278006</v>
+        <v>-0.03551183201210729</v>
       </c>
       <c r="E72">
-        <v>-0.03379769642120465</v>
+        <v>-0.05383196690942736</v>
       </c>
       <c r="F72">
-        <v>-0.03554476472965599</v>
+        <v>0.08418892522671381</v>
       </c>
       <c r="G72">
-        <v>-0.06092048235592477</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.001469670465840469</v>
+      </c>
+      <c r="H72">
+        <v>-0.01516063136769005</v>
+      </c>
+      <c r="I72">
+        <v>0.03589312518599593</v>
+      </c>
+      <c r="J72">
+        <v>-0.07073771177998019</v>
+      </c>
+      <c r="K72">
+        <v>0.1554281339389259</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2848824016812459</v>
+        <v>-0.2379680460918026</v>
       </c>
       <c r="C73">
-        <v>-0.1575915634082404</v>
+        <v>0.1095503505026972</v>
       </c>
       <c r="D73">
-        <v>-0.04534549264919988</v>
+        <v>0.01168410387519162</v>
       </c>
       <c r="E73">
-        <v>-0.1591710491152965</v>
+        <v>0.1538839171192696</v>
       </c>
       <c r="F73">
-        <v>0.3037921812897832</v>
+        <v>-0.05149346265717766</v>
       </c>
       <c r="G73">
-        <v>0.2621600097622034</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.2755164222723357</v>
+      </c>
+      <c r="H73">
+        <v>-0.3451486680579803</v>
+      </c>
+      <c r="I73">
+        <v>-0.2708265446540837</v>
+      </c>
+      <c r="J73">
+        <v>0.2018214620834124</v>
+      </c>
+      <c r="K73">
+        <v>-0.04492978418415996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09850817003625632</v>
+        <v>-0.1120772289811815</v>
       </c>
       <c r="C74">
-        <v>-0.03965528782481253</v>
+        <v>0.05862953691187395</v>
       </c>
       <c r="D74">
-        <v>-0.001062737994208438</v>
+        <v>-0.03224973757253239</v>
       </c>
       <c r="E74">
-        <v>-0.01572620031104073</v>
+        <v>0.01782178353079024</v>
       </c>
       <c r="F74">
-        <v>-0.09871430777134393</v>
+        <v>-0.0111186883560077</v>
       </c>
       <c r="G74">
-        <v>0.03059326780897228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06646310217987006</v>
+      </c>
+      <c r="H74">
+        <v>-0.08033145992326475</v>
+      </c>
+      <c r="I74">
+        <v>0.1393440719422549</v>
+      </c>
+      <c r="J74">
+        <v>-0.03326269745326595</v>
+      </c>
+      <c r="K74">
+        <v>0.02389330598415791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09280996523314786</v>
+        <v>-0.1077177550773524</v>
       </c>
       <c r="C75">
-        <v>-0.01653556542291853</v>
+        <v>0.04088246898062903</v>
       </c>
       <c r="D75">
-        <v>0.01987547469281539</v>
+        <v>-0.007510914897990677</v>
       </c>
       <c r="E75">
-        <v>-0.03405750709837219</v>
+        <v>0.001825161061660983</v>
       </c>
       <c r="F75">
-        <v>-0.1117116997056433</v>
+        <v>0.006491017568919679</v>
       </c>
       <c r="G75">
-        <v>0.06323804481461971</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.001988869862604622</v>
+      </c>
+      <c r="H75">
+        <v>-0.04171021026815415</v>
+      </c>
+      <c r="I75">
+        <v>0.1552394905050935</v>
+      </c>
+      <c r="J75">
+        <v>-0.0363109986608396</v>
+      </c>
+      <c r="K75">
+        <v>0.005186404109636143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1370357485173298</v>
+        <v>-0.05707737192864521</v>
       </c>
       <c r="C76">
-        <v>-0.03119228909259229</v>
+        <v>0.02767989706684522</v>
       </c>
       <c r="D76">
-        <v>-0.01941689630750931</v>
+        <v>-0.02824269091670887</v>
       </c>
       <c r="E76">
-        <v>0.017088559199973</v>
+        <v>0.02188626659964365</v>
       </c>
       <c r="F76">
-        <v>-0.210156748625361</v>
+        <v>-0.03441047002691613</v>
       </c>
       <c r="G76">
-        <v>0.09776435306117229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.03126038498345009</v>
+      </c>
+      <c r="H76">
+        <v>-0.05569165999553437</v>
+      </c>
+      <c r="I76">
+        <v>0.1405488550060898</v>
+      </c>
+      <c r="J76">
+        <v>-0.02226460859472828</v>
+      </c>
+      <c r="K76">
+        <v>0.02022315615577225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.09042815802935589</v>
+        <v>-0.07286131537588549</v>
       </c>
       <c r="C77">
-        <v>0.01117222020071542</v>
+        <v>0.03232714373350549</v>
       </c>
       <c r="D77">
-        <v>-0.04206903846460398</v>
+        <v>0.02124677277910077</v>
       </c>
       <c r="E77">
-        <v>0.06039167835304978</v>
+        <v>0.01157286742910019</v>
       </c>
       <c r="F77">
-        <v>0.149805125777987</v>
+        <v>-0.03758312317858934</v>
       </c>
       <c r="G77">
-        <v>-0.1576413055781846</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03772350233179543</v>
+      </c>
+      <c r="H77">
+        <v>0.2262360148612875</v>
+      </c>
+      <c r="I77">
+        <v>-0.1585422096993054</v>
+      </c>
+      <c r="J77">
+        <v>-0.07627890192196796</v>
+      </c>
+      <c r="K77">
+        <v>0.1768047682064455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2162638141675003</v>
+        <v>-0.1482037075678463</v>
       </c>
       <c r="C78">
-        <v>-0.06987095694134057</v>
+        <v>0.09766647655469761</v>
       </c>
       <c r="D78">
-        <v>-0.06672221196347523</v>
+        <v>-0.1183816395261789</v>
       </c>
       <c r="E78">
-        <v>0.1847530324235354</v>
+        <v>-0.2048014997638363</v>
       </c>
       <c r="F78">
-        <v>-0.02667021123198231</v>
+        <v>-0.136562691204955</v>
       </c>
       <c r="G78">
-        <v>-0.1125739804628726</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.7214198954435591</v>
+      </c>
+      <c r="H78">
+        <v>0.490663049918079</v>
+      </c>
+      <c r="I78">
+        <v>0.1935557243989961</v>
+      </c>
+      <c r="J78">
+        <v>0.0977308288148523</v>
+      </c>
+      <c r="K78">
+        <v>0.04123629620226389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1356467673364671</v>
+        <v>-0.134371133629112</v>
       </c>
       <c r="C79">
-        <v>-0.01343487664978889</v>
+        <v>0.0448411368806647</v>
       </c>
       <c r="D79">
-        <v>-0.001376970156269543</v>
+        <v>0.01021885663392212</v>
       </c>
       <c r="E79">
-        <v>-0.01878515662210516</v>
+        <v>0.01241579468819452</v>
       </c>
       <c r="F79">
-        <v>-0.1631372541362285</v>
+        <v>0.00149727202207922</v>
       </c>
       <c r="G79">
-        <v>-0.001123710218359303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.04826730901401995</v>
+      </c>
+      <c r="H79">
+        <v>-0.04558959496975497</v>
+      </c>
+      <c r="I79">
+        <v>0.1592510723659834</v>
+      </c>
+      <c r="J79">
+        <v>-0.05260826868042272</v>
+      </c>
+      <c r="K79">
+        <v>0.06789998018366919</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03426923101058461</v>
+        <v>-0.05958664971568461</v>
       </c>
       <c r="C80">
-        <v>-0.009825076507239884</v>
+        <v>0.03461079808890965</v>
       </c>
       <c r="D80">
-        <v>-0.01819639142415056</v>
+        <v>-0.0380094799860169</v>
       </c>
       <c r="E80">
-        <v>-0.0275732424200658</v>
+        <v>0.06519589047171462</v>
       </c>
       <c r="F80">
-        <v>0.01898827759803212</v>
+        <v>-0.005386855318922122</v>
       </c>
       <c r="G80">
-        <v>-0.07298866818587367</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.005709143451891172</v>
+      </c>
+      <c r="H80">
+        <v>0.06876920860013189</v>
+      </c>
+      <c r="I80">
+        <v>0.01786784756203591</v>
+      </c>
+      <c r="J80">
+        <v>-0.03480854300813246</v>
+      </c>
+      <c r="K80">
+        <v>-0.1462488002521022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.108665298580906</v>
+        <v>-0.1297888312132077</v>
       </c>
       <c r="C81">
-        <v>-0.01056374006917441</v>
+        <v>0.05208311127633935</v>
       </c>
       <c r="D81">
-        <v>-0.01012476060196639</v>
+        <v>-0.004088384145501633</v>
       </c>
       <c r="E81">
-        <v>-0.01410633656651343</v>
+        <v>0.01370426138439046</v>
       </c>
       <c r="F81">
-        <v>-0.139568358830253</v>
+        <v>-0.01271816431152426</v>
       </c>
       <c r="G81">
-        <v>0.04024333702792655</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.05892508664742443</v>
+      </c>
+      <c r="H81">
+        <v>-0.01877520647620914</v>
+      </c>
+      <c r="I81">
+        <v>0.1557453359231563</v>
+      </c>
+      <c r="J81">
+        <v>-0.01779548668353307</v>
+      </c>
+      <c r="K81">
+        <v>0.01088377120496423</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1084475147868751</v>
+        <v>-0.1428256480182566</v>
       </c>
       <c r="C82">
-        <v>-0.02945741701216667</v>
+        <v>0.04556233524007022</v>
       </c>
       <c r="D82">
-        <v>-0.05713310694856396</v>
+        <v>0.006725949208941773</v>
       </c>
       <c r="E82">
-        <v>-0.05885264316431086</v>
+        <v>0.06320061990721267</v>
       </c>
       <c r="F82">
-        <v>-0.2129698691584954</v>
+        <v>-0.005064407949504916</v>
       </c>
       <c r="G82">
-        <v>-0.0009695968830283198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.07375033394405096</v>
+      </c>
+      <c r="H82">
+        <v>-0.1056692107826935</v>
+      </c>
+      <c r="I82">
+        <v>0.2708047831216402</v>
+      </c>
+      <c r="J82">
+        <v>0.01248377387218092</v>
+      </c>
+      <c r="K82">
+        <v>-0.02141032017685084</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.1040308155015041</v>
+        <v>-0.0932993834130294</v>
       </c>
       <c r="C83">
-        <v>-0.05641248320369206</v>
+        <v>0.1046096562887294</v>
       </c>
       <c r="D83">
-        <v>-0.05445985763239915</v>
+        <v>-0.01923010097930987</v>
       </c>
       <c r="E83">
-        <v>-0.02121966967520542</v>
+        <v>0.01218265086074326</v>
       </c>
       <c r="F83">
-        <v>0.08053809801639537</v>
+        <v>-0.02827457810441494</v>
       </c>
       <c r="G83">
-        <v>-0.07493282195219252</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.01402785823700723</v>
+      </c>
+      <c r="H83">
+        <v>0.05477448782946913</v>
+      </c>
+      <c r="I83">
+        <v>-0.0149988277850632</v>
+      </c>
+      <c r="J83">
+        <v>-0.1397670798108018</v>
+      </c>
+      <c r="K83">
+        <v>-0.06881933877490766</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.04906304628382992</v>
+        <v>-0.05499336117253491</v>
       </c>
       <c r="C84">
-        <v>-0.02173634355704346</v>
+        <v>-0.01628302933312079</v>
       </c>
       <c r="D84">
-        <v>0.04828600800680121</v>
+        <v>0.03724750219871763</v>
       </c>
       <c r="E84">
-        <v>0.02333183551635148</v>
+        <v>0.02210734836204002</v>
       </c>
       <c r="F84">
-        <v>-0.01839419876441818</v>
+        <v>0.01907253502155811</v>
       </c>
       <c r="G84">
-        <v>0.02617507487244371</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.04494529842809507</v>
+      </c>
+      <c r="H84">
+        <v>0.0002353691703067717</v>
+      </c>
+      <c r="I84">
+        <v>-0.1000197055104179</v>
+      </c>
+      <c r="J84">
+        <v>0.3394639662548621</v>
+      </c>
+      <c r="K84">
+        <v>-0.177506573016418</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1007355675217492</v>
+        <v>-0.1170533376326779</v>
       </c>
       <c r="C85">
-        <v>-0.02151064454994333</v>
+        <v>0.03837246849534082</v>
       </c>
       <c r="D85">
-        <v>-0.02527537237660432</v>
+        <v>0.005342372635197681</v>
       </c>
       <c r="E85">
-        <v>-0.02239158531541089</v>
+        <v>0.03152494845318662</v>
       </c>
       <c r="F85">
-        <v>-0.1926014318050248</v>
+        <v>-0.02180895415444777</v>
       </c>
       <c r="G85">
-        <v>0.01295735720708546</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.03917875934824847</v>
+      </c>
+      <c r="H85">
+        <v>-0.03313549243140764</v>
+      </c>
+      <c r="I85">
+        <v>0.1965292251207048</v>
+      </c>
+      <c r="J85">
+        <v>-0.04052151865745684</v>
+      </c>
+      <c r="K85">
+        <v>0.06378072085063934</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06921096433084112</v>
+        <v>-0.1398007110243071</v>
       </c>
       <c r="C86">
-        <v>-0.024195869927043</v>
+        <v>0.08602518082205647</v>
       </c>
       <c r="D86">
-        <v>-0.04918780893766612</v>
+        <v>0.8559531114594549</v>
       </c>
       <c r="E86">
-        <v>0.05727749603553312</v>
+        <v>-0.3485261186968762</v>
       </c>
       <c r="F86">
-        <v>0.01060491112318025</v>
+        <v>0.2026515873413322</v>
       </c>
       <c r="G86">
-        <v>-0.1263456424030184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05534540850430735</v>
+      </c>
+      <c r="H86">
+        <v>0.1108689162978777</v>
+      </c>
+      <c r="I86">
+        <v>0.04627742845492814</v>
+      </c>
+      <c r="J86">
+        <v>0.04986198302512403</v>
+      </c>
+      <c r="K86">
+        <v>-0.05418454692371481</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.103151078267012</v>
+        <v>-0.1156387292115676</v>
       </c>
       <c r="C87">
-        <v>-0.05793222403710794</v>
+        <v>0.09415984207890656</v>
       </c>
       <c r="D87">
-        <v>-0.01805473131506581</v>
+        <v>0.006440451922333509</v>
       </c>
       <c r="E87">
-        <v>0.06252467358809664</v>
+        <v>0.01622394801061211</v>
       </c>
       <c r="F87">
-        <v>0.02207711700212137</v>
+        <v>-0.02835222263610637</v>
       </c>
       <c r="G87">
-        <v>-0.1151132529893432</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.05440089690977295</v>
+      </c>
+      <c r="H87">
+        <v>0.1305297796989798</v>
+      </c>
+      <c r="I87">
+        <v>-0.1271966634032603</v>
+      </c>
+      <c r="J87">
+        <v>-0.1070599634389487</v>
+      </c>
+      <c r="K87">
+        <v>-0.003836195013086349</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.0689893147894228</v>
+        <v>-0.0575555324005498</v>
       </c>
       <c r="C88">
-        <v>-0.0351412490641335</v>
+        <v>0.04505757643864218</v>
       </c>
       <c r="D88">
-        <v>-0.02261831174255149</v>
+        <v>-0.01804543429687827</v>
       </c>
       <c r="E88">
-        <v>0.01075199150662047</v>
+        <v>0.05404690406963101</v>
       </c>
       <c r="F88">
-        <v>-0.001673465225707391</v>
+        <v>0.008843561228552852</v>
       </c>
       <c r="G88">
-        <v>-0.06009469986873674</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02083449592127857</v>
+      </c>
+      <c r="H88">
+        <v>0.01999536465891645</v>
+      </c>
+      <c r="I88">
+        <v>-0.001688554607603421</v>
+      </c>
+      <c r="J88">
+        <v>0.01171623036063568</v>
+      </c>
+      <c r="K88">
+        <v>-0.007801673030378332</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09539540153669676</v>
+        <v>-0.1675511761284544</v>
       </c>
       <c r="C89">
-        <v>0.3706627542817606</v>
+        <v>-0.3740087089126182</v>
       </c>
       <c r="D89">
-        <v>-0.1094489493486975</v>
+        <v>0.01468066849916947</v>
       </c>
       <c r="E89">
-        <v>0.01614965328829587</v>
+        <v>-0.0102641960687594</v>
       </c>
       <c r="F89">
-        <v>0.06205548701924372</v>
+        <v>-0.07057651315418433</v>
       </c>
       <c r="G89">
-        <v>-0.01418852332616556</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.02261108392151295</v>
+      </c>
+      <c r="H89">
+        <v>0.03485705021174679</v>
+      </c>
+      <c r="I89">
+        <v>-0.02793503998035488</v>
+      </c>
+      <c r="J89">
+        <v>-0.0001208693378404169</v>
+      </c>
+      <c r="K89">
+        <v>-0.07727895229992889</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07548814682820651</v>
+        <v>-0.1322132752703064</v>
       </c>
       <c r="C90">
-        <v>0.2975322720680246</v>
+        <v>-0.2782611017808076</v>
       </c>
       <c r="D90">
-        <v>-0.04974611066311375</v>
+        <v>0.01266879199307779</v>
       </c>
       <c r="E90">
-        <v>0.04523271928133782</v>
+        <v>0.02244411948613066</v>
       </c>
       <c r="F90">
-        <v>0.0522972687358294</v>
+        <v>-0.01028820922427268</v>
       </c>
       <c r="G90">
-        <v>-0.0422672944893079</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02959284582414315</v>
+      </c>
+      <c r="H90">
+        <v>0.03202416726411738</v>
+      </c>
+      <c r="I90">
+        <v>-0.05904171558210598</v>
+      </c>
+      <c r="J90">
+        <v>0.04660560796611928</v>
+      </c>
+      <c r="K90">
+        <v>0.02181933337142985</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.08355366969070137</v>
+        <v>-0.08191371106345548</v>
       </c>
       <c r="C91">
-        <v>-0.02311974810479913</v>
+        <v>0.03877867276884896</v>
       </c>
       <c r="D91">
-        <v>-0.004726584193293468</v>
+        <v>0.01667987393442122</v>
       </c>
       <c r="E91">
-        <v>-0.01668184789122963</v>
+        <v>0.009280893665524639</v>
       </c>
       <c r="F91">
-        <v>-0.07801845008269696</v>
+        <v>-0.01128555776417729</v>
       </c>
       <c r="G91">
-        <v>0.06463772766096239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.01564095368720752</v>
+      </c>
+      <c r="H91">
+        <v>-0.04532152227115937</v>
+      </c>
+      <c r="I91">
+        <v>0.1201876117243316</v>
+      </c>
+      <c r="J91">
+        <v>-0.03130839937178862</v>
+      </c>
+      <c r="K91">
+        <v>0.01516413582663455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.07099096700986297</v>
+        <v>-0.1418157886133986</v>
       </c>
       <c r="C92">
-        <v>0.340723305747906</v>
+        <v>-0.3320804910225785</v>
       </c>
       <c r="D92">
-        <v>-0.07124818777626056</v>
+        <v>0.003602853106335352</v>
       </c>
       <c r="E92">
-        <v>0.02174237682231538</v>
+        <v>-0.01231950826627553</v>
       </c>
       <c r="F92">
-        <v>0.03851175478260953</v>
+        <v>-0.04238256426431855</v>
       </c>
       <c r="G92">
-        <v>0.0335901146561282</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0005297514774811134</v>
+      </c>
+      <c r="H92">
+        <v>0.06775215403642749</v>
+      </c>
+      <c r="I92">
+        <v>0.0253259441141747</v>
+      </c>
+      <c r="J92">
+        <v>0.02251948793522183</v>
+      </c>
+      <c r="K92">
+        <v>-0.002617112284236776</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08617517966273468</v>
+        <v>-0.1359604139621558</v>
       </c>
       <c r="C93">
-        <v>0.2950160781084487</v>
+        <v>-0.3105121854575768</v>
       </c>
       <c r="D93">
-        <v>-0.05114606916901469</v>
+        <v>0.04045407742774166</v>
       </c>
       <c r="E93">
-        <v>0.009305186622082398</v>
+        <v>0.03627832095872122</v>
       </c>
       <c r="F93">
-        <v>0.02186047071831524</v>
+        <v>0.005327431678583308</v>
       </c>
       <c r="G93">
-        <v>0.005813776985343723</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03171990758813723</v>
+      </c>
+      <c r="H93">
+        <v>0.00623973524985282</v>
+      </c>
+      <c r="I93">
+        <v>-0.02666116150254851</v>
+      </c>
+      <c r="J93">
+        <v>0.005367944458530484</v>
+      </c>
+      <c r="K93">
+        <v>-0.0009175077654539356</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09211138518360128</v>
+        <v>-0.1221766330724793</v>
       </c>
       <c r="C94">
-        <v>-0.04535897919089518</v>
+        <v>0.04921586437724329</v>
       </c>
       <c r="D94">
-        <v>0.005403770183671015</v>
+        <v>-0.02281208990148636</v>
       </c>
       <c r="E94">
-        <v>-0.005362650066746707</v>
+        <v>0.01110622424699245</v>
       </c>
       <c r="F94">
-        <v>-0.1241681024903471</v>
+        <v>-0.02575910947257771</v>
       </c>
       <c r="G94">
-        <v>0.06385326656216687</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.02079575557227249</v>
+      </c>
+      <c r="H94">
+        <v>-0.08180121477369709</v>
+      </c>
+      <c r="I94">
+        <v>0.1334838009462405</v>
+      </c>
+      <c r="J94">
+        <v>0.008565125792668852</v>
+      </c>
+      <c r="K94">
+        <v>0.02377506394440764</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.13748968428694</v>
+        <v>-0.1189379933115663</v>
       </c>
       <c r="C95">
-        <v>-0.07173711209904933</v>
+        <v>0.06089614778599437</v>
       </c>
       <c r="D95">
-        <v>-0.06925336968104949</v>
+        <v>-0.01789053094819193</v>
       </c>
       <c r="E95">
-        <v>0.02972005803833375</v>
+        <v>0.01235855891732922</v>
       </c>
       <c r="F95">
-        <v>0.04948502709078521</v>
+        <v>-0.07294859648336093</v>
       </c>
       <c r="G95">
-        <v>-0.1187488434742251</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.01839835542350947</v>
+      </c>
+      <c r="H95">
+        <v>0.1166539871969656</v>
+      </c>
+      <c r="I95">
+        <v>-0.2000868695343914</v>
+      </c>
+      <c r="J95">
+        <v>-0.01588951316193647</v>
+      </c>
+      <c r="K95">
+        <v>-0.1930403825526516</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.008307993277685685</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.003448352415115625</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.004362245332577421</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.005030051725911377</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.003288510014247605</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>0.008637098422663062</v>
+      </c>
+      <c r="H96">
+        <v>0.01385623713131807</v>
+      </c>
+      <c r="I96">
+        <v>-0.01050180013521331</v>
+      </c>
+      <c r="J96">
+        <v>-0.008721076519842573</v>
+      </c>
+      <c r="K96">
+        <v>0.02094668774710588</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2024724728801479</v>
+        <v>-0.1873111378945403</v>
       </c>
       <c r="C97">
-        <v>0.1447867962962281</v>
+        <v>0.002409140269963785</v>
       </c>
       <c r="D97">
-        <v>0.9028813255617214</v>
+        <v>-0.4054264335739205</v>
       </c>
       <c r="E97">
-        <v>0.03507162454923778</v>
+        <v>-0.5578563719410322</v>
       </c>
       <c r="F97">
-        <v>0.0460660097814275</v>
+        <v>0.6486665072285053</v>
       </c>
       <c r="G97">
-        <v>-0.02424710704133641</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.05462926572292626</v>
+      </c>
+      <c r="H97">
+        <v>-0.09507017228771493</v>
+      </c>
+      <c r="I97">
+        <v>-0.06103539225935239</v>
+      </c>
+      <c r="J97">
+        <v>0.05216461172994507</v>
+      </c>
+      <c r="K97">
+        <v>-0.03129696852085823</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.317350135941328</v>
+        <v>-0.2680445310321203</v>
       </c>
       <c r="C98">
-        <v>-0.07266644264398324</v>
+        <v>0.08487097273025178</v>
       </c>
       <c r="D98">
-        <v>-0.05471227071688319</v>
+        <v>0.03241355520343616</v>
       </c>
       <c r="E98">
-        <v>-0.2488856252848143</v>
+        <v>0.01149677873631717</v>
       </c>
       <c r="F98">
-        <v>0.2122639636645272</v>
+        <v>-0.03956953035195799</v>
       </c>
       <c r="G98">
-        <v>0.2710664207873056</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.2154805401943542</v>
+      </c>
+      <c r="H98">
+        <v>-0.2741630047061991</v>
+      </c>
+      <c r="I98">
+        <v>-0.01849604821538223</v>
+      </c>
+      <c r="J98">
+        <v>-0.2748635663839263</v>
+      </c>
+      <c r="K98">
+        <v>-0.5791918513869617</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.0821692362322311</v>
+        <v>-0.05533859412620114</v>
       </c>
       <c r="C99">
-        <v>-0.0327144606461407</v>
+        <v>0.0173741996261165</v>
       </c>
       <c r="D99">
-        <v>-0.008066366461306639</v>
+        <v>-0.03526397772925062</v>
       </c>
       <c r="E99">
-        <v>-0.0139237984957193</v>
+        <v>0.007939115367198591</v>
       </c>
       <c r="F99">
-        <v>-0.01218396771483638</v>
+        <v>-0.03531441756888373</v>
       </c>
       <c r="G99">
-        <v>-0.01821734452880084</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.01401783958180582</v>
+      </c>
+      <c r="H99">
+        <v>0.004402299504808018</v>
+      </c>
+      <c r="I99">
+        <v>0.02316264098482272</v>
+      </c>
+      <c r="J99">
+        <v>0.02270843192771285</v>
+      </c>
+      <c r="K99">
+        <v>0.01478717929359377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.01807285654958395</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.0237412260079014</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.09470708031106106</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.05194367963096079</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.02949529342978968</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>-0.05757484649696873</v>
+      </c>
+      <c r="H100">
+        <v>-0.007863875258451588</v>
+      </c>
+      <c r="I100">
+        <v>0.05404795653908992</v>
+      </c>
+      <c r="J100">
+        <v>-0.03155937817501144</v>
+      </c>
+      <c r="K100">
+        <v>-0.2152847353239456</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05797722121553119</v>
+        <v>-0.04103704611885699</v>
       </c>
       <c r="C101">
-        <v>-0.007505150394519134</v>
+        <v>0.02149939834316969</v>
       </c>
       <c r="D101">
-        <v>-0.03076266964416538</v>
+        <v>-0.00697123870476138</v>
       </c>
       <c r="E101">
-        <v>0.04294619372043085</v>
+        <v>0.03380433655880671</v>
       </c>
       <c r="F101">
-        <v>-0.03829482165186968</v>
+        <v>-0.01794413208954171</v>
       </c>
       <c r="G101">
-        <v>-0.05063973693003399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.08799897201277546</v>
+      </c>
+      <c r="H101">
+        <v>0.05457602600433591</v>
+      </c>
+      <c r="I101">
+        <v>0.01252062568054251</v>
+      </c>
+      <c r="J101">
+        <v>-0.04942096903653624</v>
+      </c>
+      <c r="K101">
+        <v>-0.04397325739536617</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
